--- a/preturi.xlsx
+++ b/preturi.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="List1" sheetId="1" state="visible" r:id="rId1"/>
@@ -390,10 +390,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A57"/>
+  <dimension ref="A1:A60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -755,14 +755,14 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>19,99 RON</t>
+          <t>29,99 RON</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
@@ -776,14 +776,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>19,99 RON</t>
+          <t>23,99 RON</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
@@ -796,6 +796,27 @@
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
+        <is>
+          <t>23,99 RON</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-09-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Perie de păr Stitch</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>19,99 RON</t>
         </is>
